--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -535,7 +535,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -543,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z998"/>
+  <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -623,23 +623,23 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" t="s">
-        <v>48</v>
-      </c>
-    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1629,7 +1629,6 @@
     <row r="995" ht="14.25" customHeight="1"/>
     <row r="996" ht="14.25" customHeight="1"/>
     <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
